--- a/ADC-Values.xlsx
+++ b/ADC-Values.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ECE 312\Lab\Lab 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltin.KoltinPC\Documents\GitHub\Diode-Temperature-Sensor-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>LM35 V</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Temp</t>
+  </si>
+  <si>
+    <t>Temp*100</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,1415 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5765529308836396E-3"/>
+                  <c:y val="-0.585174978127734"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.569892473118287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.494623655913983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.34408602150539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.268817204301072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.193548387096769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.118279569892479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.043010752688176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.892473118279568</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.817204301075279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.741935483870975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.591397849462368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.516129032258078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.13978494623656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.064516129032263</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.98924731182796</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.913978494623663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.838709677419359</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.763440860215063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.688172043010759</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.612903225806463</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.537634408602152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.387096774193552</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.311827956989248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.236559139784951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.161290322580648</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.086021505376344</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.01075268817204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.86021505376344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.784946236559144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.70967741935484</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.634408602150536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.55913978494624</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.483870967741936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.408602150537639</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.258064516129039</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.182795698924735</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.107526881720432</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.032258064516132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.956989247311832</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.881720430107531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83EC-4FD1-9338-7572AB6287B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288219408"/>
+        <c:axId val="288221704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="288219408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288221704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="288221704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288219408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40925"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp*100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13935335967175289"/>
+                  <c:y val="-0.62099843047257286"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7956.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7848.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7204.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6881.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6773.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5591</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5054</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4409</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3763.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3547.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3440.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD69-43EE-AF5E-308C9E7F26B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="593898592"/>
+        <c:axId val="593894984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="593898592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593894984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593894984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593898592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1241,20 +2652,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1274,6 +3717,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A9E7A5-1D75-4B27-899B-1065DC3656C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F87DB9B-1BAA-4C5B-8F89-CC2D125C4663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1579,18 +4094,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F47"/>
+  <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1606,8 +4122,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>744</v>
       </c>
@@ -1626,8 +4145,12 @@
         <f>D2/0.01</f>
         <v>80</v>
       </c>
+      <c r="G2">
+        <f>ROUND(F2,2)*100</f>
+        <v>8000</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>740</v>
       </c>
@@ -1646,8 +4169,12 @@
         <f t="shared" ref="F3:F47" si="2">D3/0.01</f>
         <v>79.569892473118287</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G47" si="3">ROUND(F3,2)*100</f>
+        <v>7956.9999999999991</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>730</v>
       </c>
@@ -1666,8 +4193,12 @@
         <f t="shared" si="2"/>
         <v>78.494623655913983</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>7848.9999999999991</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>720</v>
       </c>
@@ -1686,8 +4217,12 @@
         <f t="shared" si="2"/>
         <v>77.41935483870968</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>7742</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>710</v>
       </c>
@@ -1706,8 +4241,12 @@
         <f t="shared" si="2"/>
         <v>76.34408602150539</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>7634</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>700</v>
       </c>
@@ -1726,8 +4265,12 @@
         <f t="shared" si="2"/>
         <v>75.268817204301072</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>7527</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>690</v>
       </c>
@@ -1746,8 +4289,12 @@
         <f t="shared" si="2"/>
         <v>74.193548387096769</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>7419</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>680</v>
       </c>
@@ -1766,8 +4313,12 @@
         <f t="shared" si="2"/>
         <v>73.118279569892479</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>7312</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>670</v>
       </c>
@@ -1786,8 +4337,12 @@
         <f t="shared" si="2"/>
         <v>72.043010752688176</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>7204.0000000000009</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>660</v>
       </c>
@@ -1806,8 +4361,12 @@
         <f t="shared" si="2"/>
         <v>70.967741935483872</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>7097</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>650</v>
       </c>
@@ -1826,8 +4385,12 @@
         <f t="shared" si="2"/>
         <v>69.892473118279568</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>6989</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>640</v>
       </c>
@@ -1846,8 +4409,12 @@
         <f t="shared" si="2"/>
         <v>68.817204301075279</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>6881.9999999999991</v>
+      </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>630</v>
       </c>
@@ -1866,8 +4433,12 @@
         <f t="shared" si="2"/>
         <v>67.741935483870975</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>6773.9999999999991</v>
+      </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>610</v>
       </c>
@@ -1886,8 +4457,12 @@
         <f t="shared" si="2"/>
         <v>65.591397849462368</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6559</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>600</v>
       </c>
@@ -1906,8 +4481,12 @@
         <f t="shared" si="2"/>
         <v>64.516129032258078</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>6452</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>550</v>
       </c>
@@ -1926,8 +4505,12 @@
         <f t="shared" si="2"/>
         <v>59.13978494623656</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>5914</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>540</v>
       </c>
@@ -1946,8 +4529,12 @@
         <f t="shared" si="2"/>
         <v>58.064516129032263</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>5806</v>
+      </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>530</v>
       </c>
@@ -1966,8 +4553,12 @@
         <f t="shared" si="2"/>
         <v>56.98924731182796</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>5699</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>520</v>
       </c>
@@ -1986,8 +4577,12 @@
         <f t="shared" si="2"/>
         <v>55.913978494623663</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>5591</v>
+      </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>510</v>
       </c>
@@ -2006,8 +4601,12 @@
         <f t="shared" si="2"/>
         <v>54.838709677419359</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>5484</v>
+      </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>500</v>
       </c>
@@ -2026,8 +4625,12 @@
         <f t="shared" si="2"/>
         <v>53.763440860215063</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>5376</v>
+      </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>490</v>
       </c>
@@ -2046,8 +4649,12 @@
         <f t="shared" si="2"/>
         <v>52.688172043010759</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>5269</v>
+      </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>480</v>
       </c>
@@ -2066,8 +4673,12 @@
         <f t="shared" si="2"/>
         <v>51.612903225806463</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>5161</v>
+      </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>470</v>
       </c>
@@ -2086,8 +4697,12 @@
         <f t="shared" si="2"/>
         <v>50.537634408602152</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>5054</v>
+      </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>460</v>
       </c>
@@ -2106,8 +4721,12 @@
         <f t="shared" si="2"/>
         <v>49.462365591397848</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>4946</v>
+      </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>450</v>
       </c>
@@ -2126,8 +4745,12 @@
         <f t="shared" si="2"/>
         <v>48.387096774193552</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>4839</v>
+      </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>440</v>
       </c>
@@ -2146,8 +4769,12 @@
         <f t="shared" si="2"/>
         <v>47.311827956989248</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>4731</v>
+      </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>430</v>
       </c>
@@ -2166,8 +4793,12 @@
         <f t="shared" si="2"/>
         <v>46.236559139784951</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>4624</v>
+      </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>420</v>
       </c>
@@ -2186,8 +4817,12 @@
         <f t="shared" si="2"/>
         <v>45.161290322580648</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>4516</v>
+      </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>410</v>
       </c>
@@ -2206,8 +4841,12 @@
         <f t="shared" si="2"/>
         <v>44.086021505376344</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>4409</v>
+      </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>400</v>
       </c>
@@ -2226,8 +4865,12 @@
         <f t="shared" si="2"/>
         <v>43.01075268817204</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>4301</v>
+      </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>390</v>
       </c>
@@ -2246,8 +4889,12 @@
         <f t="shared" si="2"/>
         <v>41.935483870967744</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>4194</v>
+      </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>380</v>
       </c>
@@ -2266,8 +4913,12 @@
         <f t="shared" si="2"/>
         <v>40.86021505376344</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>4086</v>
+      </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>370</v>
       </c>
@@ -2286,8 +4937,12 @@
         <f t="shared" si="2"/>
         <v>39.784946236559144</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>3978</v>
+      </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>360</v>
       </c>
@@ -2306,8 +4961,12 @@
         <f t="shared" si="2"/>
         <v>38.70967741935484</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>3871</v>
+      </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>350</v>
       </c>
@@ -2326,8 +4985,12 @@
         <f t="shared" si="2"/>
         <v>37.634408602150536</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>3763.0000000000005</v>
+      </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>340</v>
       </c>
@@ -2346,8 +5009,12 @@
         <f t="shared" si="2"/>
         <v>36.55913978494624</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>3656</v>
+      </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>330</v>
       </c>
@@ -2366,8 +5033,12 @@
         <f t="shared" si="2"/>
         <v>35.483870967741936</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>3547.9999999999995</v>
+      </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>320</v>
       </c>
@@ -2386,8 +5057,12 @@
         <f t="shared" si="2"/>
         <v>34.408602150537639</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>3440.9999999999995</v>
+      </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>310</v>
       </c>
@@ -2406,8 +5081,12 @@
         <f t="shared" si="2"/>
         <v>33.333333333333336</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>3333</v>
+      </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>300</v>
       </c>
@@ -2426,8 +5105,12 @@
         <f t="shared" si="2"/>
         <v>32.258064516129039</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>3226</v>
+      </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>290</v>
       </c>
@@ -2446,8 +5129,12 @@
         <f t="shared" si="2"/>
         <v>31.182795698924735</v>
       </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>3118</v>
+      </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>280</v>
       </c>
@@ -2466,8 +5153,12 @@
         <f t="shared" si="2"/>
         <v>30.107526881720432</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>3011</v>
+      </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>270</v>
       </c>
@@ -2486,8 +5177,12 @@
         <f t="shared" si="2"/>
         <v>29.032258064516132</v>
       </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>2903</v>
+      </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>260</v>
       </c>
@@ -2506,8 +5201,12 @@
         <f t="shared" si="2"/>
         <v>27.956989247311832</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>2796</v>
+      </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>250</v>
       </c>
@@ -2525,6 +5224,10 @@
       <c r="F47">
         <f t="shared" si="2"/>
         <v>26.881720430107531</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>2688</v>
       </c>
     </row>
   </sheetData>

--- a/ADC-Values.xlsx
+++ b/ADC-Values.xlsx
@@ -2016,6 +2016,639 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp*100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6132983377077863E-4"/>
+                  <c:y val="-0.1314822105570137"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7956.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7848.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7204.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6881.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6773.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5591</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5054</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4409</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3763.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3547.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3440.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE0-4F71-AF67-ABFB97A39464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507708528"/>
+        <c:axId val="507702296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507708528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507702296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507702296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507708528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2136,6 +2769,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3169,6 +3842,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3789,6 +4978,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288DAEC-5619-448A-BFCE-E27DEC6D5610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4096,8 +5321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="B1:B1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADC-Values.xlsx
+++ b/ADC-Values.xlsx
@@ -2016,639 +2016,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temp*100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.6132983377077863E-4"/>
-                  <c:y val="-0.1314822105570137"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7956.9999999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7848.9999999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7742</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7527</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7419</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7312</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7204.0000000000009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7097</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6881.9999999999991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6773.9999999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6559</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6452</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5914</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5806</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5591</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5484</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5376</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5269</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5161</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5054</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4946</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4839</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4731</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4624</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4516</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4409</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4194</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4086</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3978</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3871</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3763.0000000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3656</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3547.9999999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3440.9999999999995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3226</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3118</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3011</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2903</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2796</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2688</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DE0-4F71-AF67-ABFB97A39464}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="507708528"/>
-        <c:axId val="507702296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="507708528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507702296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="507702296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507708528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2769,46 +2136,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3842,522 +3169,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4978,42 +3789,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288DAEC-5619-448A-BFCE-E27DEC6D5610}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5321,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="B1:B1048576 G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADC-Values.xlsx
+++ b/ADC-Values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltin.KoltinPC\Documents\GitHub\Diode-Temperature-Sensor-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltin Kosik-Harvey\Documents\GitHub\Diode-Temperature-Sensor-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2016,6 +2016,653 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp*100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3027559055118111E-2"/>
+                  <c:y val="-0.13611184018664332"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7956.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7848.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7204.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6881.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6773.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5591</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5054</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4409</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3763.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3547.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3440.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F2C-41E0-BBCC-CC0605BE91ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331605456"/>
+        <c:axId val="331612344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331605456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331612344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331612344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331605456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2136,6 +2783,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3684,20 +4371,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3724,16 +4927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3760,16 +4963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3789,6 +4992,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B945C7-BA7A-49A9-851F-42521B229C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4096,17 +5335,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="B1:B1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -4126,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>744</v>
       </c>
@@ -4150,7 +5389,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>740</v>
       </c>
@@ -4174,7 +5413,7 @@
         <v>7956.9999999999991</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>730</v>
       </c>
@@ -4198,7 +5437,7 @@
         <v>7848.9999999999991</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>720</v>
       </c>
@@ -4222,7 +5461,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>710</v>
       </c>
@@ -4246,7 +5485,7 @@
         <v>7634</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>700</v>
       </c>
@@ -4270,7 +5509,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>690</v>
       </c>
@@ -4294,7 +5533,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>680</v>
       </c>
@@ -4318,7 +5557,7 @@
         <v>7312</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>670</v>
       </c>
@@ -4342,7 +5581,7 @@
         <v>7204.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>660</v>
       </c>
@@ -4366,7 +5605,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>650</v>
       </c>
@@ -4390,7 +5629,7 @@
         <v>6989</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>640</v>
       </c>
@@ -4414,7 +5653,7 @@
         <v>6881.9999999999991</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>630</v>
       </c>
@@ -4438,7 +5677,7 @@
         <v>6773.9999999999991</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>610</v>
       </c>
@@ -4462,7 +5701,7 @@
         <v>6559</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>600</v>
       </c>
@@ -4486,7 +5725,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>550</v>
       </c>
@@ -4510,7 +5749,7 @@
         <v>5914</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>540</v>
       </c>
@@ -4534,7 +5773,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>530</v>
       </c>
@@ -4558,7 +5797,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>520</v>
       </c>
@@ -4582,7 +5821,7 @@
         <v>5591</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>510</v>
       </c>
@@ -4606,7 +5845,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>500</v>
       </c>
@@ -4630,7 +5869,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>490</v>
       </c>
@@ -4654,7 +5893,7 @@
         <v>5269</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>480</v>
       </c>
@@ -4678,7 +5917,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>470</v>
       </c>
@@ -4702,7 +5941,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>460</v>
       </c>
@@ -4726,7 +5965,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>450</v>
       </c>
@@ -4750,7 +5989,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>440</v>
       </c>
@@ -4774,7 +6013,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>430</v>
       </c>
@@ -4798,7 +6037,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>420</v>
       </c>
@@ -4822,7 +6061,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>410</v>
       </c>
@@ -4846,7 +6085,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>400</v>
       </c>
@@ -4870,7 +6109,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>390</v>
       </c>
@@ -4894,7 +6133,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>380</v>
       </c>
@@ -4918,7 +6157,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>370</v>
       </c>
@@ -4942,7 +6181,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>360</v>
       </c>
@@ -4966,7 +6205,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>350</v>
       </c>
@@ -4990,7 +6229,7 @@
         <v>3763.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>340</v>
       </c>
@@ -5014,7 +6253,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>330</v>
       </c>
@@ -5038,7 +6277,7 @@
         <v>3547.9999999999995</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>320</v>
       </c>
@@ -5062,7 +6301,7 @@
         <v>3440.9999999999995</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>310</v>
       </c>
@@ -5086,7 +6325,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>300</v>
       </c>
@@ -5110,7 +6349,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>290</v>
       </c>
@@ -5134,7 +6373,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>280</v>
       </c>
@@ -5158,7 +6397,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>270</v>
       </c>
@@ -5182,7 +6421,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>260</v>
       </c>
@@ -5206,7 +6445,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>250</v>
       </c>
